--- a/Work/ncbitaxon.xlsx
+++ b/Work/ncbitaxon.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkchang/Github/Python/Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{B85EFD13-99A0-8046-B529-74E2FDFED298}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D76F9BA1-61B5-EA49-B6D0-E2AFAF1EB4F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31380" windowHeight="27500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31380" windowHeight="27500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ncbitaxon" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="569">
   <si>
     <t>entity</t>
   </si>
@@ -1196,9 +1196,6 @@
   </si>
   <si>
     <t>Polyphaga &lt;Coleoptera&gt;</t>
-  </si>
-  <si>
-    <t>root</t>
   </si>
   <si>
     <t>Hylidae</t>
@@ -1735,7 +1732,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2576,11 +2573,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N588"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2617,13 +2614,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>392</v>
+        <v>568</v>
+      </c>
+      <c r="D3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2631,27 +2631,27 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>569</v>
-      </c>
-      <c r="D4" t="s">
-        <v>505</v>
+        <v>568</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>158</v>
-      </c>
-      <c r="C5" t="s">
-        <v>569</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>496</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E5" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2659,64 +2659,62 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>569</v>
-      </c>
-      <c r="E6" t="s">
-        <v>553</v>
+        <v>568</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>569</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>377</v>
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
       <c r="B8">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
-        <v>569</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
+      <c r="F8" t="s">
+        <v>568</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>78</v>
       </c>
-      <c r="F9" t="s">
-        <v>569</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="G9" t="s">
+        <v>568</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>78</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" t="s">
-        <v>569</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>396</v>
+      <c r="D10" s="2"/>
+      <c r="H10" t="s">
+        <v>568</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20" x14ac:dyDescent="0.35">
@@ -2724,83 +2722,79 @@
         <v>78</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="H11" t="s">
-        <v>569</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="20" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>568</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>78</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="I12" t="s">
-        <v>569</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>319</v>
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>568</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>77</v>
       </c>
-      <c r="J13" t="s">
-        <v>569</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>508</v>
+      <c r="K13" t="s">
+        <v>568</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>77</v>
-      </c>
-      <c r="K14" t="s">
-        <v>569</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>163</v>
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
+        <v>568</v>
+      </c>
+      <c r="M14" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>63</v>
-      </c>
-      <c r="L15" t="s">
-        <v>569</v>
-      </c>
       <c r="M15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M16" t="s">
-        <v>569</v>
-      </c>
-      <c r="N16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18">
+        <v>568</v>
+      </c>
+      <c r="N15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
-        <v>569</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D17" t="s">
+        <v>568</v>
+      </c>
+      <c r="E17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C33" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
@@ -2808,63 +2802,63 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>492</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>371</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -2872,7 +2866,7 @@
         <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
@@ -2880,7 +2874,7 @@
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
@@ -2888,7 +2882,7 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
@@ -2896,7 +2890,7 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
@@ -2904,7 +2898,7 @@
         <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
@@ -2912,7 +2906,7 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
@@ -2920,7 +2914,7 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
@@ -2928,15 +2922,15 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>385</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
@@ -2944,7 +2938,7 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
@@ -2952,23 +2946,23 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>281</v>
+        <v>566</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>567</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>527</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
@@ -2976,7 +2970,7 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
@@ -2984,15 +2978,15 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B59">
-        <v>21</v>
-      </c>
-      <c r="C59" t="s">
-        <v>502</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
@@ -3000,31 +2994,31 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>278</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>479</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>565</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
@@ -3032,7 +3026,7 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
@@ -3040,7 +3034,7 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
@@ -3048,15 +3042,15 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>412</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>523</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
@@ -3064,7 +3058,7 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
@@ -3072,7 +3066,7 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
@@ -3080,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
@@ -3088,7 +3082,7 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
@@ -3096,7 +3090,7 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>349</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
@@ -3104,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
@@ -3112,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
@@ -3120,15 +3114,15 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>535</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
@@ -3136,23 +3130,23 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>518</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
@@ -3160,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
@@ -3168,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
@@ -3176,7 +3170,7 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
@@ -3184,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
@@ -3192,15 +3186,15 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>308</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>513</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
@@ -3208,7 +3202,7 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
@@ -3216,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
@@ -3224,7 +3218,7 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
@@ -3232,7 +3226,7 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
@@ -3240,7 +3234,7 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
@@ -3248,7 +3242,7 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
@@ -3256,7 +3250,7 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
@@ -3264,7 +3258,7 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>323</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
@@ -3272,15 +3266,15 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>507</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
@@ -3288,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
@@ -3296,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
@@ -3304,7 +3298,7 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
@@ -3312,7 +3306,7 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
@@ -3320,7 +3314,7 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
@@ -3328,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
@@ -3336,7 +3330,7 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
@@ -3344,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
@@ -3360,7 +3354,7 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
@@ -3368,7 +3362,7 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>449</v>
+        <v>530</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
@@ -3376,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
@@ -3384,15 +3378,15 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>566</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
@@ -3400,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
@@ -3408,7 +3402,7 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>348</v>
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
@@ -3416,15 +3410,15 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>439</v>
+        <v>545</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>546</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
@@ -3432,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
@@ -3440,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
@@ -3448,7 +3442,7 @@
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
@@ -3456,7 +3450,7 @@
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
@@ -3464,7 +3458,7 @@
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
@@ -3472,7 +3466,7 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>192</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
@@ -3480,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
@@ -3488,7 +3482,7 @@
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
@@ -3496,7 +3490,7 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
@@ -3512,7 +3506,7 @@
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
@@ -3520,7 +3514,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>408</v>
+        <v>483</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
@@ -3528,15 +3522,15 @@
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>516</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
@@ -3544,7 +3538,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
@@ -3552,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
@@ -3560,7 +3554,7 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
@@ -3568,7 +3562,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
@@ -3576,7 +3570,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
@@ -3584,7 +3578,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
@@ -3592,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
@@ -3600,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
@@ -3608,7 +3602,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
@@ -3616,7 +3610,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
@@ -3624,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
@@ -3632,7 +3626,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
@@ -3640,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
@@ -3648,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
@@ -3656,7 +3650,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
@@ -3664,7 +3658,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
@@ -3672,7 +3666,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
@@ -3680,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
@@ -3688,7 +3682,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
@@ -3696,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>415</v>
+        <v>493</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
@@ -3704,15 +3698,15 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
         <v>4</v>
-      </c>
-      <c r="C150" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
@@ -3720,7 +3714,7 @@
         <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
@@ -3728,7 +3722,7 @@
         <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
@@ -3736,7 +3730,7 @@
         <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
@@ -3744,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
@@ -3752,7 +3746,7 @@
         <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
@@ -3760,7 +3754,7 @@
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
@@ -3768,7 +3762,7 @@
         <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
@@ -3776,7 +3770,7 @@
         <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
@@ -3784,7 +3778,7 @@
         <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
@@ -3792,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
@@ -3800,7 +3794,7 @@
         <v>3</v>
       </c>
       <c r="C161" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
@@ -3808,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
@@ -3816,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
@@ -3824,7 +3818,7 @@
         <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
@@ -3832,7 +3826,7 @@
         <v>3</v>
       </c>
       <c r="C165" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
@@ -3840,7 +3834,7 @@
         <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
@@ -3848,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
@@ -3856,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
@@ -3864,7 +3858,7 @@
         <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
@@ -3872,7 +3866,7 @@
         <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
@@ -3880,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
@@ -3888,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
@@ -3896,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
@@ -3904,7 +3898,7 @@
         <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
@@ -3920,15 +3914,15 @@
         <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>564</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
@@ -3936,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
@@ -3944,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
@@ -3952,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
@@ -3960,7 +3954,7 @@
         <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
@@ -3968,7 +3962,7 @@
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
@@ -3976,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
@@ -3984,7 +3978,7 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
@@ -3992,7 +3986,7 @@
         <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
@@ -4000,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
@@ -4008,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
@@ -4016,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
@@ -4024,7 +4018,7 @@
         <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
@@ -4032,7 +4026,7 @@
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
@@ -4040,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
@@ -4048,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
@@ -4056,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
@@ -4064,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
@@ -4072,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
@@ -4080,7 +4074,7 @@
         <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
@@ -4088,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
@@ -4096,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
@@ -4104,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
@@ -4112,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
@@ -4120,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
@@ -4128,7 +4122,7 @@
         <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
@@ -4136,7 +4130,7 @@
         <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
@@ -4144,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
@@ -4152,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
@@ -4160,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
@@ -4168,7 +4162,7 @@
         <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
@@ -4176,7 +4170,7 @@
         <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
@@ -4184,7 +4178,7 @@
         <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
@@ -4192,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
@@ -4200,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
@@ -4208,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
@@ -4216,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
@@ -4224,7 +4218,7 @@
         <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
@@ -4232,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
@@ -4240,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
@@ -4248,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
@@ -4256,7 +4250,7 @@
         <v>2</v>
       </c>
       <c r="C218" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
@@ -4264,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
@@ -4272,7 +4266,7 @@
         <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
@@ -4280,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
@@ -4288,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
@@ -4296,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
@@ -4304,7 +4298,7 @@
         <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
@@ -4312,7 +4306,7 @@
         <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
@@ -4320,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
@@ -4328,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
@@ -4336,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
@@ -4344,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
@@ -4352,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
@@ -4360,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="C231" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
@@ -4368,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
@@ -4376,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
@@ -4384,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
@@ -4392,7 +4386,7 @@
         <v>2</v>
       </c>
       <c r="C235" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
@@ -4400,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
@@ -4408,7 +4402,7 @@
         <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
@@ -4416,7 +4410,7 @@
         <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
@@ -4424,7 +4418,7 @@
         <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
@@ -4432,7 +4426,7 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
@@ -4440,7 +4434,7 @@
         <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
@@ -4448,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="C242" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
@@ -4456,7 +4450,7 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
@@ -4464,7 +4458,7 @@
         <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
@@ -4472,7 +4466,7 @@
         <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
@@ -4496,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="C248" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
@@ -4504,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
@@ -4512,7 +4506,7 @@
         <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
@@ -4520,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
@@ -4536,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
@@ -4544,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
@@ -4552,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
@@ -4576,7 +4570,7 @@
         <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
@@ -4592,7 +4586,7 @@
         <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
@@ -4600,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
@@ -4608,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
@@ -4616,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
@@ -4624,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
@@ -4632,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
@@ -4640,7 +4634,7 @@
         <v>2</v>
       </c>
       <c r="C266" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
@@ -4648,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="C267" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
@@ -4656,7 +4650,7 @@
         <v>2</v>
       </c>
       <c r="C268" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
@@ -4664,7 +4658,7 @@
         <v>2</v>
       </c>
       <c r="C269" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
@@ -4672,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="C270" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
@@ -4680,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
@@ -4696,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
@@ -4704,7 +4698,7 @@
         <v>2</v>
       </c>
       <c r="C274" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
@@ -4712,7 +4706,7 @@
         <v>2</v>
       </c>
       <c r="C275" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
@@ -4720,7 +4714,7 @@
         <v>2</v>
       </c>
       <c r="C276" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
@@ -4728,7 +4722,7 @@
         <v>2</v>
       </c>
       <c r="C277" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
@@ -4736,7 +4730,7 @@
         <v>2</v>
       </c>
       <c r="C278" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
@@ -4744,7 +4738,7 @@
         <v>2</v>
       </c>
       <c r="C279" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
@@ -4752,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="C280" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
@@ -4765,10 +4759,10 @@
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>562</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
@@ -4776,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
@@ -4784,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
@@ -4792,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
@@ -4800,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
@@ -4808,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
@@ -4816,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
@@ -4824,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
@@ -4832,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
@@ -4840,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
@@ -4848,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
@@ -4856,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
@@ -4864,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
@@ -4872,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
@@ -4880,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
@@ -4888,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
@@ -4896,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
@@ -4904,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="C299" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
@@ -4912,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="C300" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
@@ -4920,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
@@ -4928,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
@@ -4936,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
@@ -4944,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
@@ -4952,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="C305" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
@@ -4960,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
@@ -4968,7 +4962,7 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
@@ -4976,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
@@ -4984,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
@@ -4992,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
@@ -5000,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
@@ -5008,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="C312" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
@@ -5016,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
@@ -5024,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
@@ -5032,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
@@ -5040,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
@@ -5048,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
@@ -5056,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
@@ -5064,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
@@ -5072,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="C320" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
@@ -5080,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="C321" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
@@ -5088,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
@@ -5096,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
@@ -5104,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
@@ -5112,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="C325" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
@@ -5120,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="C326" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
@@ -5128,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
@@ -5136,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
@@ -5144,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="C329" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
@@ -5152,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
@@ -5160,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
@@ -5168,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="C332" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
@@ -5176,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="C333" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
@@ -5184,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="C334" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
@@ -5192,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="C335" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
@@ -5200,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="C336" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
@@ -5208,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="C337" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
@@ -5216,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="C338" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
@@ -5224,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
@@ -5232,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="C340" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
@@ -5240,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
@@ -5248,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="C342" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
@@ -5256,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="C343" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
@@ -5264,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="C344" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
@@ -5272,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="C345" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
@@ -5280,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="C346" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
@@ -5288,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="C347" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
@@ -5296,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="C348" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
@@ -5304,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="C349" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.2">
@@ -5312,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="C350" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
@@ -5320,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="C351" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
@@ -5328,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="C352" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
@@ -5336,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="C353" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
@@ -5344,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="C354" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
@@ -5352,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="C355" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
@@ -5360,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="C356" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
@@ -5368,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="C357" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
@@ -5376,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="C358" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
@@ -5384,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="C359" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
@@ -5392,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="C360" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
@@ -5400,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="C361" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
@@ -5408,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="C362" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
@@ -5416,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="C363" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
@@ -5424,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="C364" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
@@ -5432,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="C365" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
@@ -5440,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="C366" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
@@ -5448,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="C367" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
@@ -5456,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="C368" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
@@ -5464,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="C369" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
@@ -5472,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="C370" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
@@ -5480,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="C371" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
@@ -5488,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="C372" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
@@ -5496,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="C373" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
@@ -5504,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="C374" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
@@ -5512,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="C375" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
@@ -5520,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="C376" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
@@ -5528,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="C377" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
@@ -5536,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="C378" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
@@ -5544,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="C379" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
@@ -5552,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="C380" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
@@ -5560,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="C381" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
@@ -5568,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="C382" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
@@ -5576,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="C383" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
@@ -5584,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="C384" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
@@ -5592,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="C385" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
@@ -5600,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="C386" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
@@ -5608,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="C387" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
@@ -5616,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="C388" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.2">
@@ -5624,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="C389" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.2">
@@ -5632,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="C390" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
@@ -5640,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="C391" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.2">
@@ -5648,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="C392" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
@@ -5656,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="C393" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
@@ -5664,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="C394" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.2">
@@ -5672,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="C395" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.2">
@@ -5680,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="C396" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.2">
@@ -5688,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="C397" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.2">
@@ -5696,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="C398" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.2">
@@ -5704,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="C399" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.2">
@@ -5712,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="C400" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.2">
@@ -5720,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="C401" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.2">
@@ -5728,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="C402" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.2">
@@ -5736,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="C403" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.2">
@@ -5744,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="C404" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.2">
@@ -5752,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="C405" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.2">
@@ -5760,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="C406" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
@@ -5768,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="C407" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.2">
@@ -5776,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="C408" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
@@ -5784,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="C409" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
@@ -5792,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="C410" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.2">
@@ -5800,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="C411" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.2">
@@ -5808,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="C412" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.2">
@@ -5816,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="C413" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.2">
@@ -5824,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="C414" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.2">
@@ -5832,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="C415" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.2">
@@ -5840,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="C416" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.2">
@@ -5848,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="C417" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.2">
@@ -5856,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="C418" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.2">
@@ -5864,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="C419" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.2">
@@ -5872,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="C420" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.2">
@@ -5880,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="C421" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.2">
@@ -5888,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="C422" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.2">
@@ -5896,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="C423" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.2">
@@ -5904,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="C424" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.2">
@@ -5912,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="C425" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.2">
@@ -5920,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="C426" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.2">
@@ -5928,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="C427" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.2">
@@ -5936,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="C428" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.2">
@@ -5944,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="C429" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.2">
@@ -5952,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="C430" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.2">
@@ -5960,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="C431" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.2">
@@ -5968,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="C432" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.2">
@@ -5976,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="C433" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.2">
@@ -5984,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="C434" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.2">
@@ -5992,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="C435" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.2">
@@ -6000,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="C436" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.2">
@@ -6008,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="C437" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.2">
@@ -6016,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="C438" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.2">
@@ -6024,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="C439" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.2">
@@ -6032,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="C440" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.2">
@@ -6040,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="C441" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.2">
@@ -6048,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="C442" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.2">
@@ -6056,7 +6050,7 @@
         <v>1</v>
       </c>
       <c r="C443" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.2">
@@ -6064,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="C444" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.2">
@@ -6072,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="C445" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.2">
@@ -6080,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="C446" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.2">
@@ -6088,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="C447" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.2">
@@ -6096,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="C448" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.2">
@@ -6104,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="C449" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.2">
@@ -6112,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="C450" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.2">
@@ -6120,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="C451" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.2">
@@ -6128,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="C452" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.2">
@@ -6136,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="C453" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.2">
@@ -6144,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="C454" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.2">
@@ -6152,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="C455" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.2">
@@ -6160,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="C456" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.2">
@@ -6168,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="C457" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.2">
@@ -6176,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="C458" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.2">
@@ -6184,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="C459" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.2">
@@ -6192,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="C460" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.2">
@@ -6200,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="C461" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.2">
@@ -6208,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="C462" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.2">
@@ -6216,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="C463" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.2">
@@ -6224,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="C464" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.2">
@@ -6232,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="C465" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.2">
@@ -6240,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="C466" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.2">
@@ -6248,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="C467" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.2">
@@ -6256,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="C468" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.2">
@@ -6264,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="C469" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.2">
@@ -6272,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="C470" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.2">
@@ -6280,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="C471" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.2">
@@ -6288,7 +6282,7 @@
         <v>1</v>
       </c>
       <c r="C472" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.2">
@@ -6296,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="C473" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.2">
@@ -6304,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="C474" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.2">
@@ -6312,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="C475" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.2">
@@ -6320,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="C476" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.2">
@@ -6328,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="C477" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.2">
@@ -6336,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="C478" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.2">
@@ -6344,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="C479" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.2">
@@ -6352,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="C480" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.2">
@@ -6360,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="C481" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.2">
@@ -6368,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="C482" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.2">
@@ -6376,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="C483" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.2">
@@ -6384,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="C484" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.2">
@@ -6392,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="C485" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.2">
@@ -6400,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="C486" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.2">
@@ -6408,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="C487" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.2">
@@ -6416,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="C488" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.2">
@@ -6424,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="C489" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.2">
@@ -6432,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="C490" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.2">
@@ -6440,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="C491" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.2">
@@ -6448,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="C492" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.2">
@@ -6456,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="C493" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.2">
@@ -6464,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="C494" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.2">
@@ -6472,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="C495" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.2">
@@ -6480,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="C496" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.2">
@@ -6488,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="C497" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.2">
@@ -6496,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="C498" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.2">
@@ -6504,7 +6498,7 @@
         <v>1</v>
       </c>
       <c r="C499" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.2">
@@ -6512,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="C500" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.2">
@@ -6520,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="C501" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.2">
@@ -6528,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="C502" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.2">
@@ -6536,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="C503" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.2">
@@ -6544,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="C504" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.2">
@@ -6552,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="C505" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.2">
@@ -6560,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="C506" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.2">
@@ -6568,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="C507" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.2">
@@ -6600,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="C511" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.2">
@@ -6608,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="C512" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.2">
@@ -6616,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="C513" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.2">
@@ -6632,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="C515" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.2">
@@ -6648,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="C517" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.2">
@@ -6664,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="C519" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.2">
@@ -6680,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="C521" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.2">
@@ -6696,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="C523" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.2">
@@ -6736,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="C528" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.2">
@@ -6744,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="C529" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.2">
@@ -6760,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="C531" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.2">
@@ -6784,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="C534" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.2">
@@ -6792,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="C535" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.2">
@@ -6848,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="C542" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.2">
@@ -6856,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="C543" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.2">
@@ -6864,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="C544" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.2">
@@ -6872,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="C545" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.2">
@@ -6880,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="C546" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.2">
@@ -6896,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="C548" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.2">
@@ -6904,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="C549" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.2">
@@ -6912,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="C550" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.2">
@@ -6920,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="C551" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.2">
@@ -6960,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="C556" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.2">
@@ -6968,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="C557" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.2">
@@ -6976,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="C558" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.2">
@@ -6984,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="C559" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.2">
@@ -6992,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="C560" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.2">
@@ -7016,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="C563" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.2">
@@ -7032,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="C565" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.2">
@@ -7040,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="C566" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.2">
@@ -7072,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="C570" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.2">
@@ -7088,7 +7082,7 @@
         <v>1</v>
       </c>
       <c r="C572" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.2">
@@ -7096,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="C573" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.2">
@@ -7104,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="C574" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.2">
@@ -7112,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="C575" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.2">
@@ -7136,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="C578" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.2">
@@ -7144,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="C579" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.2">
@@ -7152,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="C580" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.2">
@@ -7163,12 +7157,12 @@
         <v>551</v>
       </c>
     </row>
-    <row r="582" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B582">
-        <v>1</v>
-      </c>
-      <c r="C582" t="s">
-        <v>552</v>
+    <row r="583" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B583">
+        <v>1</v>
+      </c>
+      <c r="C583" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.2">
@@ -7176,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="C584" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.2">
@@ -7200,19 +7194,11 @@
         <v>1</v>
       </c>
       <c r="C587" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="588" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B588">
-        <v>1</v>
-      </c>
-      <c r="C588" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:D588">
+  <sortState ref="C2:D587">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
